--- a/Python/output/case-study/st_SA_FAresults.xlsx
+++ b/Python/output/case-study/st_SA_FAresults.xlsx
@@ -1,33 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27715"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/local_ysong3/Documents/GitHub/msp_models_for_adaptive_disaster_relief_logistics_planning/Python/output/case-study/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yongjis/Desktop/temp/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{9CF3114A-C162-CE43-ACAA-63577994473C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="300" yWindow="860" windowWidth="28500" windowHeight="17200" tabRatio="500"/>
+    <workbookView xWindow="8780" yWindow="4100" windowWidth="27640" windowHeight="16940" xr2:uid="{9D8C9844-A905-B244-8E30-CAD089699195}"/>
   </bookViews>
   <sheets>
     <sheet name="Trans_SA_FAresults" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>instance_option</t>
   </si>
@@ -49,32 +42,329 @@
   <si>
     <t>test_time</t>
   </si>
-  <si>
-    <t>LB</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Aptos Display"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF006100"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9C0006"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9C5700"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -82,21 +372,213 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="42">
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -113,44 +595,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="DengXian Light"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -178,14 +660,31 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="DengXian"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -213,6 +712,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -274,13 +790,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -289,6 +798,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -353,22 +869,42 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A01E0CF-B073-B24C-9BEE-B8857B5917E1}">
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -384,18 +920,15 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -410,19 +943,19 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>2965182.0410723002</v>
+        <v>2886587.8927811198</v>
       </c>
       <c r="E2">
-        <v>2725770.6504257601</v>
+        <v>2697506.47732017</v>
       </c>
       <c r="F2">
-        <v>171717.133888693</v>
+        <v>161351.9438023</v>
       </c>
       <c r="G2">
-        <v>173.94581294059699</v>
+        <v>139.31984305381701</v>
       </c>
       <c r="H2">
-        <v>6.7454199790954501</v>
+        <v>6.90569591522216</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -435,17 +968,20 @@
       <c r="C3">
         <v>2</v>
       </c>
+      <c r="D3">
+        <v>3279925.7875484098</v>
+      </c>
       <c r="E3">
-        <v>3132666.6752300998</v>
+        <v>3098092.50487509</v>
       </c>
       <c r="F3">
-        <v>195434.692801953</v>
+        <v>183063.87272771</v>
       </c>
       <c r="G3">
-        <v>94.403269767761202</v>
+        <v>89.925000905990601</v>
       </c>
       <c r="H3">
-        <v>5.0483090877532897</v>
+        <v>6.3266470432281396</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -459,19 +995,19 @@
         <v>3</v>
       </c>
       <c r="D4">
-        <v>3692946.33550754</v>
+        <v>3599853.2095319098</v>
       </c>
       <c r="E4">
-        <v>3489926.1501627499</v>
+        <v>3466939.60688882</v>
       </c>
       <c r="F4">
-        <v>220735.40149516999</v>
+        <v>206530.53258768801</v>
       </c>
       <c r="G4">
-        <v>111.431761264801</v>
+        <v>80.262183904647799</v>
       </c>
       <c r="H4">
-        <v>6.00531005859375</v>
+        <v>6.0070741176605198</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -485,19 +1021,19 @@
         <v>4</v>
       </c>
       <c r="D5">
-        <v>3948215.05152776</v>
+        <v>3858615.2191410498</v>
       </c>
       <c r="E5">
-        <v>3676969.4876852399</v>
+        <v>3668725.1294291802</v>
       </c>
       <c r="F5">
-        <v>211634.68919852001</v>
+        <v>202211.17817773999</v>
       </c>
       <c r="G5">
-        <v>112.44786286354</v>
+        <v>68.850689172744694</v>
       </c>
       <c r="H5">
-        <v>6.1077008247375399</v>
+        <v>5.79274582862854</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -511,19 +1047,19 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>2733664.1112735001</v>
+        <v>2661575.4969860301</v>
       </c>
       <c r="E6">
-        <v>2734885.6248419499</v>
+        <v>2573709.1896527102</v>
       </c>
       <c r="F6">
-        <v>266408.11875451001</v>
+        <v>223909.72982726499</v>
       </c>
       <c r="G6">
-        <v>85.831369161605807</v>
+        <v>58.656764745712202</v>
       </c>
       <c r="H6">
-        <v>7.1710522174835196</v>
+        <v>6.8486840724944997</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -536,17 +1072,20 @@
       <c r="C7">
         <v>2</v>
       </c>
+      <c r="D7">
+        <v>3124470.6658938001</v>
+      </c>
       <c r="E7">
-        <v>3206690.0685868501</v>
+        <v>3077598.9143366399</v>
       </c>
       <c r="F7">
-        <v>295806.34573619103</v>
+        <v>263191.50109585602</v>
       </c>
       <c r="G7">
-        <v>60.6284019947052</v>
+        <v>62.654609918594304</v>
       </c>
       <c r="H7">
-        <v>5.4831590652465803</v>
+        <v>7.0196681022643999</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -560,19 +1099,19 @@
         <v>3</v>
       </c>
       <c r="D8">
-        <v>3538813.1383390599</v>
+        <v>3439897.0429658</v>
       </c>
       <c r="E8">
-        <v>3465151.0175082101</v>
+        <v>3293632.6437436398</v>
       </c>
       <c r="F8">
-        <v>264726.47296610702</v>
+        <v>216225.04179450701</v>
       </c>
       <c r="G8">
-        <v>42.906201124191199</v>
+        <v>34.605571985244701</v>
       </c>
       <c r="H8">
-        <v>6.0313470363616899</v>
+        <v>6.0276181697845397</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -586,22 +1125,22 @@
         <v>4</v>
       </c>
       <c r="D9">
-        <v>3790009.7612516498</v>
+        <v>3690631.4045293899</v>
       </c>
       <c r="E9">
-        <v>3646737.23533175</v>
+        <v>3494283.4854800301</v>
       </c>
       <c r="F9">
-        <v>252255.304540262</v>
+        <v>206215.64549829901</v>
       </c>
       <c r="G9">
-        <v>44.143285989761303</v>
+        <v>26.871444940566999</v>
       </c>
       <c r="H9">
-        <v>6.0611310005187899</v>
+        <v>5.8423149585723797</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Python/output/case-study/st_SA_FAresults.xlsx
+++ b/Python/output/case-study/st_SA_FAresults.xlsx
@@ -1,26 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
-  <workbookPr defaultThemeVersion="202300"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="27715"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yongjis/Desktop/temp/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/local_ysong3/Documents/GitHub/msp_models_for_adaptive_disaster_relief_logistics_planning/Python/output/case-study/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{9CF3114A-C162-CE43-ACAA-63577994473C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8780" yWindow="4100" windowWidth="27640" windowHeight="16940" xr2:uid="{9D8C9844-A905-B244-8E30-CAD089699195}"/>
+    <workbookView xWindow="12540" yWindow="4480" windowWidth="27640" windowHeight="16940"/>
   </bookViews>
   <sheets>
     <sheet name="Trans_SA_FAresults" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>instance_option</t>
   </si>
@@ -42,11 +49,14 @@
   <si>
     <t>test_time</t>
   </si>
+  <si>
+    <t>LB</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -900,11 +910,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A01E0CF-B073-B24C-9BEE-B8857B5917E1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -920,15 +930,18 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -943,19 +956,19 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>2886587.8927811198</v>
+        <v>2886606.1687525799</v>
       </c>
       <c r="E2">
-        <v>2697506.47732017</v>
+        <v>2696304.9390490302</v>
       </c>
       <c r="F2">
-        <v>161351.9438023</v>
+        <v>161299.519050559</v>
       </c>
       <c r="G2">
-        <v>139.31984305381701</v>
+        <v>139.355339050292</v>
       </c>
       <c r="H2">
-        <v>6.90569591522216</v>
+        <v>6.7359700202941797</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -969,19 +982,19 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <v>3279925.7875484098</v>
+        <v>3279854.349891</v>
       </c>
       <c r="E3">
-        <v>3098092.50487509</v>
+        <v>3100418.8371999399</v>
       </c>
       <c r="F3">
-        <v>183063.87272771</v>
+        <v>183713.694034418</v>
       </c>
       <c r="G3">
-        <v>89.925000905990601</v>
+        <v>99.673047065734806</v>
       </c>
       <c r="H3">
-        <v>6.3266470432281396</v>
+        <v>6.2072639465331996</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -995,19 +1008,19 @@
         <v>3</v>
       </c>
       <c r="D4">
-        <v>3599853.2095319098</v>
+        <v>3600066.4793544598</v>
       </c>
       <c r="E4">
-        <v>3466939.60688882</v>
+        <v>3466913.4481158601</v>
       </c>
       <c r="F4">
-        <v>206530.53258768801</v>
+        <v>206524.58693778201</v>
       </c>
       <c r="G4">
-        <v>80.262183904647799</v>
+        <v>92.225600957870398</v>
       </c>
       <c r="H4">
-        <v>6.0070741176605198</v>
+        <v>6.3155429363250697</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -1021,19 +1034,19 @@
         <v>4</v>
       </c>
       <c r="D5">
-        <v>3858615.2191410498</v>
+        <v>3858265.7698462298</v>
       </c>
       <c r="E5">
-        <v>3668725.1294291802</v>
+        <v>3667496.0065426598</v>
       </c>
       <c r="F5">
-        <v>202211.17817773999</v>
+        <v>202221.74610881301</v>
       </c>
       <c r="G5">
-        <v>68.850689172744694</v>
+        <v>100.651798963546</v>
       </c>
       <c r="H5">
-        <v>5.79274582862854</v>
+        <v>6.2693567276000897</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -1047,19 +1060,19 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>2661575.4969860301</v>
+        <v>2663182.0271669799</v>
       </c>
       <c r="E6">
-        <v>2573709.1896527102</v>
+        <v>2568513.1194338398</v>
       </c>
       <c r="F6">
-        <v>223909.72982726499</v>
+        <v>223768.42324649799</v>
       </c>
       <c r="G6">
-        <v>58.656764745712202</v>
+        <v>107.20077967643699</v>
       </c>
       <c r="H6">
-        <v>6.8486840724944997</v>
+        <v>8.1055607795715297</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -1073,19 +1086,19 @@
         <v>2</v>
       </c>
       <c r="D7">
-        <v>3124470.6658938001</v>
+        <v>3124531.7976661902</v>
       </c>
       <c r="E7">
-        <v>3077598.9143366399</v>
+        <v>3078117.6668686401</v>
       </c>
       <c r="F7">
-        <v>263191.50109585602</v>
+        <v>263259.74107469001</v>
       </c>
       <c r="G7">
-        <v>62.654609918594304</v>
+        <v>61.789297342300401</v>
       </c>
       <c r="H7">
-        <v>7.0196681022643999</v>
+        <v>6.77239966392517</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -1099,19 +1112,19 @@
         <v>3</v>
       </c>
       <c r="D8">
-        <v>3439897.0429658</v>
+        <v>3439902.7263436099</v>
       </c>
       <c r="E8">
-        <v>3293632.6437436398</v>
+        <v>3293880.6603405899</v>
       </c>
       <c r="F8">
-        <v>216225.04179450701</v>
+        <v>216223.50241273499</v>
       </c>
       <c r="G8">
-        <v>34.605571985244701</v>
+        <v>26.608678340911801</v>
       </c>
       <c r="H8">
-        <v>6.0276181697845397</v>
+        <v>5.5276601314544598</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -1125,19 +1138,19 @@
         <v>4</v>
       </c>
       <c r="D9">
-        <v>3690631.4045293899</v>
+        <v>3690635.1377503299</v>
       </c>
       <c r="E9">
-        <v>3494283.4854800301</v>
+        <v>3494904.0254636202</v>
       </c>
       <c r="F9">
-        <v>206215.64549829901</v>
+        <v>206203.06557664901</v>
       </c>
       <c r="G9">
-        <v>26.871444940566999</v>
+        <v>27.719955921173</v>
       </c>
       <c r="H9">
-        <v>5.8423149585723797</v>
+        <v>5.5746469497680602</v>
       </c>
     </row>
   </sheetData>
